--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-SIMUL-DASHBOARD-01).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-SIMUL-DASHBOARD-01).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="167">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -733,6 +729,10 @@
   <si>
     <t>1. 시나리오에 대해 공유하기 선택 후 공유자를 선택한다.
 2. 공유받은 사용자로 로그인하여 시나리오 목록 조회시 정상적으로 노출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -980,9 +980,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1036,6 +1033,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3488,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3515,7 +3515,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3524,14 +3524,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="25" t="s">
@@ -3541,8 +3541,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="29"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="21">
+        <v>43826</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3550,14 +3550,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="26"/>
@@ -3565,8 +3565,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="29"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="21">
+        <v>43829</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3575,13 +3575,13 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="27"/>
@@ -3589,8 +3589,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="29"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="21">
+        <v>43830</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="323.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -3672,712 +3672,824 @@
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>26</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>27</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>17</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>18</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>19</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>20</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>21</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>22</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>23</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="20" t="s">
+      <c r="F37" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>24</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>25</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>26</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="20" t="s">
+      <c r="H37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>27</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="21" t="s">
+      <c r="C38" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>28</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="20" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="21" t="s">
+      <c r="F38" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="G38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4416,7 +4528,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:J7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4435,14 +4547,14 @@
         <v>22</v>
       </c>
       <c r="B2" s="22"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4451,14 +4563,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="25" t="s">
@@ -4468,8 +4580,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="29"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="21">
+        <v>43826</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4477,14 +4589,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="26"/>
@@ -4492,8 +4604,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="29"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="21">
+        <v>43829</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4502,13 +4614,13 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="27"/>
@@ -4516,8 +4628,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="29"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="21">
+        <v>43830</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="327" customHeight="1" x14ac:dyDescent="0.3">
@@ -4526,7 +4638,7 @@
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -4542,7 +4654,7 @@
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -4555,179 +4667,223 @@
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="38"/>
       <c r="C11" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="38"/>
       <c r="C12" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="38"/>
       <c r="C13" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
       <c r="C14" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
       <c r="C15" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="38"/>
       <c r="C17" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="38"/>
       <c r="C18" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="40"/>
       <c r="C20" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -4770,7 +4926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J569"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:J20"/>
     </sheetView>
   </sheetViews>
@@ -4786,8 +4942,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>43</v>
+      <c r="A1" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4802,7 +4958,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4811,14 +4967,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -4831,14 +4987,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -4848,7 +5004,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -5030,7 +5186,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -5212,7 +5368,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -5394,7 +5550,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
@@ -5576,7 +5732,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
@@ -5758,7 +5914,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
@@ -5940,7 +6096,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
@@ -6122,7 +6278,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
@@ -6304,7 +6460,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
@@ -6486,7 +6642,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="34"/>
       <c r="C141" s="34"/>
@@ -6668,7 +6824,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B156" s="34"/>
       <c r="C156" s="34"/>
@@ -6850,7 +7006,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B171" s="34"/>
       <c r="C171" s="34"/>
@@ -7032,7 +7188,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B186" s="34"/>
       <c r="C186" s="34"/>
@@ -7214,7 +7370,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B201" s="34"/>
       <c r="C201" s="34"/>
@@ -7396,7 +7552,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B216" s="34"/>
       <c r="C216" s="34"/>
@@ -7578,7 +7734,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B231" s="34"/>
       <c r="C231" s="34"/>
@@ -7760,7 +7916,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B246" s="34"/>
       <c r="C246" s="34"/>
@@ -7942,7 +8098,7 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B261" s="34"/>
       <c r="C261" s="34"/>
@@ -8124,7 +8280,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B276" s="34"/>
       <c r="C276" s="34"/>
@@ -8306,7 +8462,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B291" s="34"/>
       <c r="C291" s="34"/>
@@ -8488,7 +8644,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B306" s="34"/>
       <c r="C306" s="34"/>
@@ -8670,7 +8826,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B321" s="34"/>
       <c r="C321" s="34"/>
@@ -8852,7 +9008,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B336" s="34"/>
       <c r="C336" s="34"/>
@@ -9034,7 +9190,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B351" s="34"/>
       <c r="C351" s="34"/>
@@ -9216,7 +9372,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B366" s="34"/>
       <c r="C366" s="34"/>
@@ -9398,7 +9554,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B381" s="34"/>
       <c r="C381" s="34"/>
@@ -9580,7 +9736,7 @@
     </row>
     <row r="396" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B396" s="34"/>
       <c r="C396" s="34"/>
@@ -9762,7 +9918,7 @@
     </row>
     <row r="411" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B411" s="34"/>
       <c r="C411" s="34"/>
@@ -11383,292 +11539,292 @@
       <c r="J545" s="44"/>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A546" s="18"/>
-      <c r="B546" s="18"/>
-      <c r="C546" s="18"/>
-      <c r="D546" s="18"/>
-      <c r="E546" s="18"/>
-      <c r="F546" s="18"/>
-      <c r="G546" s="18"/>
-      <c r="H546" s="18"/>
-      <c r="I546" s="18"/>
-      <c r="J546" s="19"/>
+      <c r="A546" s="17"/>
+      <c r="B546" s="17"/>
+      <c r="C546" s="17"/>
+      <c r="D546" s="17"/>
+      <c r="E546" s="17"/>
+      <c r="F546" s="17"/>
+      <c r="G546" s="17"/>
+      <c r="H546" s="17"/>
+      <c r="I546" s="17"/>
+      <c r="J546" s="18"/>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A547" s="10"/>
-      <c r="B547" s="11"/>
-      <c r="C547" s="11"/>
-      <c r="D547" s="11"/>
-      <c r="E547" s="11"/>
-      <c r="F547" s="11"/>
-      <c r="G547" s="11"/>
-      <c r="H547" s="11"/>
-      <c r="I547" s="11"/>
-      <c r="J547" s="12"/>
+      <c r="A547" s="9"/>
+      <c r="B547" s="10"/>
+      <c r="C547" s="10"/>
+      <c r="D547" s="10"/>
+      <c r="E547" s="10"/>
+      <c r="F547" s="10"/>
+      <c r="G547" s="10"/>
+      <c r="H547" s="10"/>
+      <c r="I547" s="10"/>
+      <c r="J547" s="11"/>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A548" s="10"/>
-      <c r="B548" s="11"/>
-      <c r="C548" s="11"/>
-      <c r="D548" s="11"/>
-      <c r="E548" s="11"/>
-      <c r="F548" s="11"/>
-      <c r="G548" s="11"/>
-      <c r="H548" s="11"/>
-      <c r="I548" s="11"/>
-      <c r="J548" s="12"/>
+      <c r="A548" s="9"/>
+      <c r="B548" s="10"/>
+      <c r="C548" s="10"/>
+      <c r="D548" s="10"/>
+      <c r="E548" s="10"/>
+      <c r="F548" s="10"/>
+      <c r="G548" s="10"/>
+      <c r="H548" s="10"/>
+      <c r="I548" s="10"/>
+      <c r="J548" s="11"/>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A549" s="10"/>
-      <c r="B549" s="11"/>
-      <c r="C549" s="11"/>
-      <c r="D549" s="11"/>
-      <c r="E549" s="11"/>
-      <c r="F549" s="11"/>
-      <c r="G549" s="11"/>
-      <c r="H549" s="11"/>
-      <c r="I549" s="11"/>
-      <c r="J549" s="12"/>
+      <c r="A549" s="9"/>
+      <c r="B549" s="10"/>
+      <c r="C549" s="10"/>
+      <c r="D549" s="10"/>
+      <c r="E549" s="10"/>
+      <c r="F549" s="10"/>
+      <c r="G549" s="10"/>
+      <c r="H549" s="10"/>
+      <c r="I549" s="10"/>
+      <c r="J549" s="11"/>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A550" s="10"/>
-      <c r="B550" s="11"/>
-      <c r="C550" s="11"/>
-      <c r="D550" s="11"/>
-      <c r="E550" s="11"/>
-      <c r="F550" s="11"/>
-      <c r="G550" s="11"/>
-      <c r="H550" s="11"/>
-      <c r="I550" s="11"/>
-      <c r="J550" s="12"/>
+      <c r="A550" s="9"/>
+      <c r="B550" s="10"/>
+      <c r="C550" s="10"/>
+      <c r="D550" s="10"/>
+      <c r="E550" s="10"/>
+      <c r="F550" s="10"/>
+      <c r="G550" s="10"/>
+      <c r="H550" s="10"/>
+      <c r="I550" s="10"/>
+      <c r="J550" s="11"/>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A551" s="10"/>
-      <c r="B551" s="11"/>
-      <c r="C551" s="11"/>
-      <c r="D551" s="11"/>
-      <c r="E551" s="11"/>
-      <c r="F551" s="11"/>
-      <c r="G551" s="11"/>
-      <c r="H551" s="11"/>
-      <c r="I551" s="11"/>
-      <c r="J551" s="12"/>
+      <c r="A551" s="9"/>
+      <c r="B551" s="10"/>
+      <c r="C551" s="10"/>
+      <c r="D551" s="10"/>
+      <c r="E551" s="10"/>
+      <c r="F551" s="10"/>
+      <c r="G551" s="10"/>
+      <c r="H551" s="10"/>
+      <c r="I551" s="10"/>
+      <c r="J551" s="11"/>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A552" s="10"/>
-      <c r="B552" s="11"/>
-      <c r="C552" s="11"/>
-      <c r="D552" s="11"/>
-      <c r="E552" s="11"/>
-      <c r="F552" s="11"/>
-      <c r="G552" s="11"/>
-      <c r="H552" s="11"/>
-      <c r="I552" s="11"/>
-      <c r="J552" s="12"/>
+      <c r="A552" s="9"/>
+      <c r="B552" s="10"/>
+      <c r="C552" s="10"/>
+      <c r="D552" s="10"/>
+      <c r="E552" s="10"/>
+      <c r="F552" s="10"/>
+      <c r="G552" s="10"/>
+      <c r="H552" s="10"/>
+      <c r="I552" s="10"/>
+      <c r="J552" s="11"/>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A553" s="10"/>
-      <c r="B553" s="11"/>
-      <c r="C553" s="11"/>
-      <c r="D553" s="11"/>
-      <c r="E553" s="11"/>
-      <c r="F553" s="11"/>
-      <c r="G553" s="11"/>
-      <c r="H553" s="11"/>
-      <c r="I553" s="11"/>
-      <c r="J553" s="12"/>
+      <c r="A553" s="9"/>
+      <c r="B553" s="10"/>
+      <c r="C553" s="10"/>
+      <c r="D553" s="10"/>
+      <c r="E553" s="10"/>
+      <c r="F553" s="10"/>
+      <c r="G553" s="10"/>
+      <c r="H553" s="10"/>
+      <c r="I553" s="10"/>
+      <c r="J553" s="11"/>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A554" s="10"/>
-      <c r="B554" s="11"/>
-      <c r="C554" s="11"/>
-      <c r="D554" s="11"/>
-      <c r="E554" s="11"/>
-      <c r="F554" s="11"/>
-      <c r="G554" s="11"/>
-      <c r="H554" s="11"/>
-      <c r="I554" s="11"/>
-      <c r="J554" s="12"/>
+      <c r="A554" s="9"/>
+      <c r="B554" s="10"/>
+      <c r="C554" s="10"/>
+      <c r="D554" s="10"/>
+      <c r="E554" s="10"/>
+      <c r="F554" s="10"/>
+      <c r="G554" s="10"/>
+      <c r="H554" s="10"/>
+      <c r="I554" s="10"/>
+      <c r="J554" s="11"/>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A555" s="10"/>
-      <c r="B555" s="11"/>
-      <c r="C555" s="11"/>
-      <c r="D555" s="11"/>
-      <c r="E555" s="11"/>
-      <c r="F555" s="11"/>
-      <c r="G555" s="11"/>
-      <c r="H555" s="11"/>
-      <c r="I555" s="11"/>
-      <c r="J555" s="12"/>
+      <c r="A555" s="9"/>
+      <c r="B555" s="10"/>
+      <c r="C555" s="10"/>
+      <c r="D555" s="10"/>
+      <c r="E555" s="10"/>
+      <c r="F555" s="10"/>
+      <c r="G555" s="10"/>
+      <c r="H555" s="10"/>
+      <c r="I555" s="10"/>
+      <c r="J555" s="11"/>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A556" s="10"/>
-      <c r="B556" s="11"/>
-      <c r="C556" s="11"/>
-      <c r="D556" s="11"/>
-      <c r="E556" s="11"/>
-      <c r="F556" s="11"/>
-      <c r="G556" s="11"/>
-      <c r="H556" s="11"/>
-      <c r="I556" s="11"/>
-      <c r="J556" s="12"/>
+      <c r="A556" s="9"/>
+      <c r="B556" s="10"/>
+      <c r="C556" s="10"/>
+      <c r="D556" s="10"/>
+      <c r="E556" s="10"/>
+      <c r="F556" s="10"/>
+      <c r="G556" s="10"/>
+      <c r="H556" s="10"/>
+      <c r="I556" s="10"/>
+      <c r="J556" s="11"/>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A557" s="10"/>
-      <c r="B557" s="11"/>
-      <c r="C557" s="11"/>
-      <c r="D557" s="11"/>
-      <c r="E557" s="11"/>
-      <c r="F557" s="11"/>
-      <c r="G557" s="11"/>
-      <c r="H557" s="11"/>
-      <c r="I557" s="11"/>
-      <c r="J557" s="12"/>
+      <c r="A557" s="9"/>
+      <c r="B557" s="10"/>
+      <c r="C557" s="10"/>
+      <c r="D557" s="10"/>
+      <c r="E557" s="10"/>
+      <c r="F557" s="10"/>
+      <c r="G557" s="10"/>
+      <c r="H557" s="10"/>
+      <c r="I557" s="10"/>
+      <c r="J557" s="11"/>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A558" s="10"/>
-      <c r="B558" s="11"/>
-      <c r="C558" s="11"/>
-      <c r="D558" s="11"/>
-      <c r="E558" s="11"/>
-      <c r="F558" s="11"/>
-      <c r="G558" s="11"/>
-      <c r="H558" s="11"/>
-      <c r="I558" s="11"/>
-      <c r="J558" s="12"/>
+      <c r="A558" s="9"/>
+      <c r="B558" s="10"/>
+      <c r="C558" s="10"/>
+      <c r="D558" s="10"/>
+      <c r="E558" s="10"/>
+      <c r="F558" s="10"/>
+      <c r="G558" s="10"/>
+      <c r="H558" s="10"/>
+      <c r="I558" s="10"/>
+      <c r="J558" s="11"/>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A559" s="10"/>
-      <c r="B559" s="11"/>
-      <c r="C559" s="11"/>
-      <c r="D559" s="11"/>
-      <c r="E559" s="11"/>
-      <c r="F559" s="11"/>
-      <c r="G559" s="11"/>
-      <c r="H559" s="11"/>
-      <c r="I559" s="11"/>
-      <c r="J559" s="12"/>
+      <c r="A559" s="9"/>
+      <c r="B559" s="10"/>
+      <c r="C559" s="10"/>
+      <c r="D559" s="10"/>
+      <c r="E559" s="10"/>
+      <c r="F559" s="10"/>
+      <c r="G559" s="10"/>
+      <c r="H559" s="10"/>
+      <c r="I559" s="10"/>
+      <c r="J559" s="11"/>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A560" s="10"/>
-      <c r="B560" s="11"/>
-      <c r="C560" s="11"/>
-      <c r="D560" s="11"/>
-      <c r="E560" s="11"/>
-      <c r="F560" s="11"/>
-      <c r="G560" s="11"/>
-      <c r="H560" s="11"/>
-      <c r="I560" s="11"/>
-      <c r="J560" s="12"/>
+      <c r="A560" s="9"/>
+      <c r="B560" s="10"/>
+      <c r="C560" s="10"/>
+      <c r="D560" s="10"/>
+      <c r="E560" s="10"/>
+      <c r="F560" s="10"/>
+      <c r="G560" s="10"/>
+      <c r="H560" s="10"/>
+      <c r="I560" s="10"/>
+      <c r="J560" s="11"/>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A561" s="10"/>
-      <c r="B561" s="11"/>
-      <c r="C561" s="11"/>
-      <c r="D561" s="11"/>
-      <c r="E561" s="11"/>
-      <c r="F561" s="11"/>
-      <c r="G561" s="11"/>
-      <c r="H561" s="11"/>
-      <c r="I561" s="11"/>
-      <c r="J561" s="12"/>
+      <c r="A561" s="9"/>
+      <c r="B561" s="10"/>
+      <c r="C561" s="10"/>
+      <c r="D561" s="10"/>
+      <c r="E561" s="10"/>
+      <c r="F561" s="10"/>
+      <c r="G561" s="10"/>
+      <c r="H561" s="10"/>
+      <c r="I561" s="10"/>
+      <c r="J561" s="11"/>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A562" s="10"/>
-      <c r="B562" s="11"/>
-      <c r="C562" s="11"/>
-      <c r="D562" s="11"/>
-      <c r="E562" s="11"/>
-      <c r="F562" s="11"/>
-      <c r="G562" s="11"/>
-      <c r="H562" s="11"/>
-      <c r="I562" s="11"/>
-      <c r="J562" s="12"/>
+      <c r="A562" s="9"/>
+      <c r="B562" s="10"/>
+      <c r="C562" s="10"/>
+      <c r="D562" s="10"/>
+      <c r="E562" s="10"/>
+      <c r="F562" s="10"/>
+      <c r="G562" s="10"/>
+      <c r="H562" s="10"/>
+      <c r="I562" s="10"/>
+      <c r="J562" s="11"/>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A563" s="10"/>
-      <c r="B563" s="11"/>
-      <c r="C563" s="11"/>
-      <c r="D563" s="11"/>
-      <c r="E563" s="11"/>
-      <c r="F563" s="11"/>
-      <c r="G563" s="11"/>
-      <c r="H563" s="11"/>
-      <c r="I563" s="11"/>
-      <c r="J563" s="12"/>
+      <c r="A563" s="9"/>
+      <c r="B563" s="10"/>
+      <c r="C563" s="10"/>
+      <c r="D563" s="10"/>
+      <c r="E563" s="10"/>
+      <c r="F563" s="10"/>
+      <c r="G563" s="10"/>
+      <c r="H563" s="10"/>
+      <c r="I563" s="10"/>
+      <c r="J563" s="11"/>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A564" s="10"/>
-      <c r="B564" s="11"/>
-      <c r="C564" s="11"/>
-      <c r="D564" s="11"/>
-      <c r="E564" s="11"/>
-      <c r="F564" s="11"/>
-      <c r="G564" s="11"/>
-      <c r="H564" s="11"/>
-      <c r="I564" s="11"/>
-      <c r="J564" s="12"/>
+      <c r="A564" s="9"/>
+      <c r="B564" s="10"/>
+      <c r="C564" s="10"/>
+      <c r="D564" s="10"/>
+      <c r="E564" s="10"/>
+      <c r="F564" s="10"/>
+      <c r="G564" s="10"/>
+      <c r="H564" s="10"/>
+      <c r="I564" s="10"/>
+      <c r="J564" s="11"/>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A565" s="10"/>
-      <c r="B565" s="11"/>
-      <c r="C565" s="11"/>
-      <c r="D565" s="11"/>
-      <c r="E565" s="11"/>
-      <c r="F565" s="11"/>
-      <c r="G565" s="11"/>
-      <c r="H565" s="11"/>
-      <c r="I565" s="11"/>
-      <c r="J565" s="12"/>
+      <c r="A565" s="9"/>
+      <c r="B565" s="10"/>
+      <c r="C565" s="10"/>
+      <c r="D565" s="10"/>
+      <c r="E565" s="10"/>
+      <c r="F565" s="10"/>
+      <c r="G565" s="10"/>
+      <c r="H565" s="10"/>
+      <c r="I565" s="10"/>
+      <c r="J565" s="11"/>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A566" s="10"/>
-      <c r="B566" s="11"/>
-      <c r="C566" s="11"/>
-      <c r="D566" s="11"/>
-      <c r="E566" s="11"/>
-      <c r="F566" s="11"/>
-      <c r="G566" s="11"/>
-      <c r="H566" s="11"/>
-      <c r="I566" s="11"/>
-      <c r="J566" s="12"/>
+      <c r="A566" s="9"/>
+      <c r="B566" s="10"/>
+      <c r="C566" s="10"/>
+      <c r="D566" s="10"/>
+      <c r="E566" s="10"/>
+      <c r="F566" s="10"/>
+      <c r="G566" s="10"/>
+      <c r="H566" s="10"/>
+      <c r="I566" s="10"/>
+      <c r="J566" s="11"/>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A567" s="10"/>
-      <c r="B567" s="11"/>
-      <c r="C567" s="11"/>
-      <c r="D567" s="11"/>
-      <c r="E567" s="11"/>
-      <c r="F567" s="11"/>
-      <c r="G567" s="11"/>
-      <c r="H567" s="11"/>
-      <c r="I567" s="11"/>
-      <c r="J567" s="12"/>
+      <c r="A567" s="9"/>
+      <c r="B567" s="10"/>
+      <c r="C567" s="10"/>
+      <c r="D567" s="10"/>
+      <c r="E567" s="10"/>
+      <c r="F567" s="10"/>
+      <c r="G567" s="10"/>
+      <c r="H567" s="10"/>
+      <c r="I567" s="10"/>
+      <c r="J567" s="11"/>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A568" s="10"/>
-      <c r="B568" s="11"/>
-      <c r="C568" s="11"/>
-      <c r="D568" s="11"/>
-      <c r="E568" s="11"/>
-      <c r="F568" s="11"/>
-      <c r="G568" s="11"/>
-      <c r="H568" s="11"/>
-      <c r="I568" s="11"/>
-      <c r="J568" s="12"/>
+      <c r="A568" s="9"/>
+      <c r="B568" s="10"/>
+      <c r="C568" s="10"/>
+      <c r="D568" s="10"/>
+      <c r="E568" s="10"/>
+      <c r="F568" s="10"/>
+      <c r="G568" s="10"/>
+      <c r="H568" s="10"/>
+      <c r="I568" s="10"/>
+      <c r="J568" s="11"/>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A569" s="13"/>
-      <c r="B569" s="14"/>
-      <c r="C569" s="14"/>
-      <c r="D569" s="14"/>
-      <c r="E569" s="14"/>
-      <c r="F569" s="14"/>
-      <c r="G569" s="14"/>
-      <c r="H569" s="14"/>
-      <c r="I569" s="14"/>
-      <c r="J569" s="15"/>
+      <c r="A569" s="12"/>
+      <c r="B569" s="13"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="13"/>
+      <c r="E569" s="13"/>
+      <c r="F569" s="13"/>
+      <c r="G569" s="13"/>
+      <c r="H569" s="13"/>
+      <c r="I569" s="13"/>
+      <c r="J569" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="77">
